--- a/scripts/Gitee_PRInfo/pr_info.xlsx
+++ b/scripts/Gitee_PRInfo/pr_info.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,34 +461,34 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>add docker-anaconda-addon,修改spec ExclusiveArch加上riscv64以后可以构建成功</t>
+          <t>some minor fixes for a helper script tool</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/65</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/68</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>【轻量级 PR】：update configuration/riscv_fork_list.yaml.</t>
+          <t>需要http-parser包</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/64</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/67</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>open</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/63</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/66</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -512,29 +512,29 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>建议只保留name字段，其他字段在fork仓库的配置流程中不使用，去掉以免对后面的仓库添加者引起困扰。</t>
+          <t>add docker-anaconda-addon,修改spec ExclusiveArch加上riscv64以后可以构建成功</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/62</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/65</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>open</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>rv_spare仓库中整理出的包的XXX.yaml文件</t>
+          <t>【轻量级 PR】：update configuration/riscv_fork_list.yaml.</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/61</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/64</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -546,46 +546,46 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>增加成员列表文档</t>
+          <t>【轻量级 PR】：update configuration/riscv_fork_list.yaml.</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/60</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/63</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>plctc仓库包的xxxx.yaml文件整理（rv_spare中的前10个包）</t>
+          <t>建议只保留name字段，其他字段在fork仓库的配置流程中不使用，去掉以免对后面的仓库添加者引起困扰。</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/59</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/62</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>fix missing / in the end of url.</t>
+          <t>rv_spare仓库中整理出的包的XXX.yaml文件</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/58</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/61</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -597,12 +597,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>update _service files for gcc and risc-v-kernel</t>
+          <t>增加成员列表文档</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/57</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/60</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -614,29 +614,29 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Based on srcs, parse a dependency network then prepare a build env</t>
+          <t>plctc仓库包的xxxx.yaml文件整理（rv_spare中的前10个包）</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/56</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/59</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>更新构建软件包的git地址和状态</t>
+          <t>fix missing / in the end of url.</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/55</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/58</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
@@ -648,29 +648,29 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>docs: Fix rootfs typo</t>
+          <t>update _service files for gcc and risc-v-kernel</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/54</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/57</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>tools: enable parse_dep.pl handle macros from specs</t>
+          <t>Based on srcs, parse a dependency network then prepare a build env</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/53</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/56</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
@@ -682,12 +682,12 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Continue working on tools for handling specs</t>
+          <t>更新构建软件包的git地址和状态</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/52</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/55</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
@@ -699,29 +699,29 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Continue working on tools for handling specs for dependencies</t>
+          <t>docs: Fix rootfs typo</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/51</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/54</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>open</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Add more logic to handle info from spec</t>
+          <t>tools: enable parse_dep.pl handle macros from specs</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/50</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/53</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr">
@@ -733,12 +733,12 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>continue on dependency handling work</t>
+          <t>Continue working on tools for handling specs</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/49</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/52</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
@@ -750,29 +750,29 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>tools: continue working on dependencies handling</t>
+          <t>Continue working on tools for handling specs for dependencies</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/48</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/51</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>cleanup _service file for python3</t>
+          <t>Add more logic to handle info from spec</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/47</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/50</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
@@ -784,12 +784,12 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Batch submit for changes for tools and minor cleanup</t>
+          <t>continue on dependency handling work</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/46</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/49</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
@@ -801,12 +801,12 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>fix dependency handling logic</t>
+          <t>tools: continue working on dependencies handling</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/45</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/48</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
@@ -818,12 +818,12 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Add new parse_dep.pl and minor fix for pull_src.py</t>
+          <t>cleanup _service file for python3</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/44</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/47</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
@@ -835,12 +835,12 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Make the pull_src.py works really</t>
+          <t>Batch submit for changes for tools and minor cleanup</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/43</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/46</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
@@ -852,12 +852,12 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>fix hardcoded revision logic in pull_src.py</t>
+          <t>fix dependency handling logic</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/42</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/45</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
@@ -869,29 +869,29 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Add function to script pull_src to pull all source code of openEuler.</t>
+          <t>Add new parse_dep.pl and minor fix for pull_src.py</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/41</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/44</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fix tools/pull_src.py</t>
+          <t>Make the pull_src.py works really</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/40</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/43</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
@@ -903,12 +903,12 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>添加项目文档</t>
+          <t>fix hardcoded revision logic in pull_src.py</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/39</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/42</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
@@ -920,29 +920,29 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>解决了中文版README中：部分url与文字描述不匹配</t>
+          <t>Add function to script pull_src to pull all source code of openEuler.</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/38</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/41</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Modify script that build rootfs to build automatically.</t>
+          <t>Fix tools/pull_src.py</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/37</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/40</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
@@ -954,12 +954,12 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[README.md 翻译] 将 openEuler RISC-V 的README中文文档翻译为英文 </t>
+          <t>添加项目文档</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/36</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/39</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
@@ -971,12 +971,12 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Add tool that pull source code automatically.</t>
+          <t>解决了中文版README中：部分url与文字描述不匹配</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/35</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/38</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
@@ -988,12 +988,12 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>当前使用openeuler最新的代码在risc-v上构建的情况</t>
+          <t>Modify script that build rootfs to build automatically.</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/34</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/37</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
@@ -1005,12 +1005,12 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Add some new packages to RISCV.</t>
+          <t xml:space="preserve">[README.md 翻译] 将 openEuler RISC-V 的README中文文档翻译为英文 </t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/33</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/36</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
@@ -1022,12 +1022,12 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>去掉了一些非公开仓的service</t>
+          <t>Add tool that pull source code automatically.</t>
         </is>
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/32</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/35</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr">
@@ -1039,12 +1039,12 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>将Mainline:RISC-V 的工程配置存放在这里</t>
+          <t>当前使用openeuler最新的代码在risc-v上构建的情况</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/31</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/34</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
@@ -1056,12 +1056,12 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>【轻量级 PR】：update README.md. 补 url.</t>
+          <t>Add some new packages to RISCV.</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/30</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/33</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
@@ -1073,12 +1073,12 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>【轻量级 PR】：update README.md. SIGer 刊号更正</t>
+          <t>去掉了一些非公开仓的service</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/29</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/32</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
@@ -1090,12 +1090,12 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>更新动态</t>
+          <t>将Mainline:RISC-V 的工程配置存放在这里</t>
         </is>
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/28</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/31</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
@@ -1107,12 +1107,12 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>更新近期的动态</t>
+          <t>【轻量级 PR】：update README.md. 补 url.</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/27</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/30</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>微信群QR可以删除啦</t>
+          <t>【轻量级 PR】：update README.md. SIGer 刊号更正</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/26</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/29</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr">
@@ -1141,29 +1141,29 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>安装文档中增加镜像的具体地址</t>
+          <t>更新动态</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/25</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/28</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>添加多架构os的探索</t>
+          <t>更新近期的动态</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/24</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/27</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr">
@@ -1175,12 +1175,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>modify service2yaml to fix yaml format</t>
+          <t>微信群QR可以删除啦</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/23</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/26</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
@@ -1192,29 +1192,29 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Add license.</t>
+          <t>安装文档中增加镜像的具体地址</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/22</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/25</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Update Installing doc with updating rootfs url</t>
+          <t>添加多架构os的探索</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/21</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/24</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
@@ -1226,12 +1226,12 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Update README.md and add sig-RISC-V-WeChatContact-QRcode.jpg </t>
+          <t>modify service2yaml to fix yaml format</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/20</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/23</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
@@ -1243,12 +1243,12 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Update RISC-V_list.yaml and fix bugs of service2yaml.py</t>
+          <t>Add license.</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/19</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/22</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
@@ -1260,12 +1260,12 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Update service2yaml.py</t>
+          <t>Update Installing doc with updating rootfs url</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/18</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/21</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
@@ -1277,12 +1277,12 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>为RISC-V的openEuler对iSulad提供构建文档</t>
+          <t xml:space="preserve">Update README.md and add sig-RISC-V-WeChatContact-QRcode.jpg </t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/17</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/20</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
@@ -1294,12 +1294,12 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>sig-RISC-V, Add descripiton to support NutShell(果壳, UCAS) COOSCA1.0 CPU.</t>
+          <t>Update RISC-V_list.yaml and fix bugs of service2yaml.py</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/16</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/19</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
@@ -1311,12 +1311,12 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>fix README.md typo, mainlist should be maillist</t>
+          <t>Update service2yaml.py</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/15</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/18</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
@@ -1328,12 +1328,12 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Update README.md</t>
+          <t>为RISC-V的openEuler对iSulad提供构建文档</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/14</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/17</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
@@ -1345,12 +1345,12 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Replace content of _service tool</t>
+          <t>sig-RISC-V, Add descripiton to support NutShell(果壳, UCAS) COOSCA1.0 CPU.</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/13</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/16</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr">
@@ -1362,29 +1362,29 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Replace content of _service tool</t>
+          <t>fix README.md typo, mainlist should be maillist</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/12</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/15</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>【轻量级 PR】：Add restriction to QEMU version. link https://gitee.com/openeuler/RISC-V/issues/I1VCH0</t>
+          <t>Update README.md</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/11</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/14</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr">
@@ -1396,80 +1396,80 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>【轻量级 PR】：update documents/Installing.md.</t>
+          <t>Replace content of _service tool</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/10</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/13</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Update Installing doc</t>
+          <t>Replace content of _service tool</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/9</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/12</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Update Installing doc</t>
+          <t>【轻量级 PR】：Add restriction to QEMU version. link https://gitee.com/openeuler/RISC-V/issues/I1VCH0</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/8</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/11</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>【轻量级 PR】：fix error</t>
+          <t>【轻量级 PR】：update documents/Installing.md.</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/7</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/10</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>整理文档结构</t>
+          <t>Update Installing doc</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/6</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/9</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
@@ -1481,29 +1481,29 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Fix some bugs of mkfs-oe.sh</t>
+          <t>Update Installing doc</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/5</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/8</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>merged</t>
+          <t>closed</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Use config file as repo and add core list</t>
+          <t>【轻量级 PR】：fix error</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/4</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/7</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
@@ -1515,12 +1515,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Automate build openEuler-RISC-V rootfs</t>
+          <t>整理文档结构</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/3</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/6</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
@@ -1532,12 +1532,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Version 1.</t>
+          <t>Fix some bugs of mkfs-oe.sh</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/2</t>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/5</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
@@ -1549,15 +1549,66 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
+          <t>Use config file as repo and add core list</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/4</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Automate build openEuler-RISC-V rootfs</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/3</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
           <t>Version 1.</t>
         </is>
       </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>https://gitee.com/api/v5/repos/openeuler/RISC-V/pulls/1</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/2</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Version 1.</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>https://gitee.com/openeuler/RISC-V/pulls/1</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
@@ -1611,12 +1662,12 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>https://gitee.com/api/v5/repos/openeuler-risc-v/ck/pulls/1</t>
+          <t>https://gitee.com/openeuler-risc-v/ck/pulls/1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>merged</t>
         </is>
       </c>
     </row>
